--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,14 +502,32 @@
           <t>OSSENI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>97010000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9874561230789</t>
+      <c r="C4" t="n">
+        <v>97010000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9874561230789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P009</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bayane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>YUYUTFREDDSXC</t>
         </is>
       </c>
     </row>

--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -512,22 +512,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P009</t>
+          <t>C005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bayane</t>
+          <t>OLA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>46278943</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>YUYUTFREDDSXC</t>
+          <t>1203654789630</t>
         </is>
       </c>
     </row>
